--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.125230333333333</v>
+        <v>0.6646009999999999</v>
       </c>
       <c r="H2">
-        <v>3.375691</v>
+        <v>1.993803</v>
       </c>
       <c r="I2">
-        <v>0.01107971898262852</v>
+        <v>0.006573892384547845</v>
       </c>
       <c r="J2">
-        <v>0.01107971898262852</v>
+        <v>0.006573892384547845</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N2">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O2">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P2">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q2">
-        <v>26.55118324616022</v>
+        <v>18.74140836735533</v>
       </c>
       <c r="R2">
-        <v>238.960649215442</v>
+        <v>168.672675306198</v>
       </c>
       <c r="S2">
-        <v>0.007752178355918786</v>
+        <v>0.004836693937579318</v>
       </c>
       <c r="T2">
-        <v>0.007752178355918786</v>
+        <v>0.004836693937579317</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.125230333333333</v>
+        <v>0.6646009999999999</v>
       </c>
       <c r="H3">
-        <v>3.375691</v>
+        <v>1.993803</v>
       </c>
       <c r="I3">
-        <v>0.01107971898262852</v>
+        <v>0.006573892384547845</v>
       </c>
       <c r="J3">
-        <v>0.01107971898262852</v>
+        <v>0.006573892384547845</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>23.334077</v>
       </c>
       <c r="O3">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P3">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q3">
-        <v>8.752070413578556</v>
+        <v>5.169283636092333</v>
       </c>
       <c r="R3">
-        <v>78.76863372220701</v>
+        <v>46.523552724831</v>
       </c>
       <c r="S3">
-        <v>0.002555351684352253</v>
+        <v>0.001334064246092937</v>
       </c>
       <c r="T3">
-        <v>0.002555351684352253</v>
+        <v>0.001334064246092937</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.125230333333333</v>
+        <v>0.6646009999999999</v>
       </c>
       <c r="H4">
-        <v>3.375691</v>
+        <v>1.993803</v>
       </c>
       <c r="I4">
-        <v>0.01107971898262852</v>
+        <v>0.006573892384547845</v>
       </c>
       <c r="J4">
-        <v>0.01107971898262852</v>
+        <v>0.006573892384547845</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.350402666666666</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N4">
-        <v>7.051207999999999</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O4">
-        <v>0.06969391042933215</v>
+        <v>0.0613235169202299</v>
       </c>
       <c r="P4">
-        <v>0.06969391042933216</v>
+        <v>0.06132351692022989</v>
       </c>
       <c r="Q4">
-        <v>2.644744376080888</v>
+        <v>1.562079962669333</v>
       </c>
       <c r="R4">
-        <v>23.802699384728</v>
+        <v>14.058719664024</v>
       </c>
       <c r="S4">
-        <v>0.0007721889423574834</v>
+        <v>0.0004031342008755902</v>
       </c>
       <c r="T4">
-        <v>0.0007721889423574835</v>
+        <v>0.0004031342008755901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>257.82061</v>
       </c>
       <c r="I5">
-        <v>0.8462207905669875</v>
+        <v>0.8500764341604863</v>
       </c>
       <c r="J5">
-        <v>0.8462207905669875</v>
+        <v>0.8500764341604863</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N5">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O5">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P5">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q5">
-        <v>2027.864001991536</v>
+        <v>2423.469789909362</v>
       </c>
       <c r="R5">
-        <v>18250.77601792382</v>
+        <v>21811.22810918426</v>
       </c>
       <c r="S5">
-        <v>0.5920776968483721</v>
+        <v>0.6254376091168494</v>
       </c>
       <c r="T5">
-        <v>0.5920776968483721</v>
+        <v>0.6254376091168493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>257.82061</v>
       </c>
       <c r="I6">
-        <v>0.8462207905669875</v>
+        <v>0.8500764341604863</v>
       </c>
       <c r="J6">
-        <v>0.8462207905669875</v>
+        <v>0.8500764341604863</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>23.334077</v>
       </c>
       <c r="O6">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P6">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q6">
         <v>668.4451073252189</v>
@@ -818,10 +818,10 @@
         <v>6016.00596592697</v>
       </c>
       <c r="S6">
-        <v>0.1951666577374011</v>
+        <v>0.1725091484499077</v>
       </c>
       <c r="T6">
-        <v>0.1951666577374011</v>
+        <v>0.1725091484499076</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>257.82061</v>
       </c>
       <c r="I7">
-        <v>0.8462207905669875</v>
+        <v>0.8500764341604863</v>
       </c>
       <c r="J7">
-        <v>0.8462207905669875</v>
+        <v>0.8500764341604863</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.350402666666666</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N7">
-        <v>7.051207999999999</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O7">
-        <v>0.06969391042933215</v>
+        <v>0.0613235169202299</v>
       </c>
       <c r="P7">
-        <v>0.06969391042933216</v>
+        <v>0.06132351692022989</v>
       </c>
       <c r="Q7">
-        <v>201.9940830885422</v>
+        <v>201.9940830885423</v>
       </c>
       <c r="R7">
         <v>1817.94674779688</v>
       </c>
       <c r="S7">
-        <v>0.05897643598121427</v>
+        <v>0.05212967659372928</v>
       </c>
       <c r="T7">
-        <v>0.05897643598121428</v>
+        <v>0.05212967659372927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>43.476679</v>
       </c>
       <c r="I8">
-        <v>0.1426994904503839</v>
+        <v>0.1433496734549659</v>
       </c>
       <c r="J8">
-        <v>0.1426994904503839</v>
+        <v>0.1433496734549659</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N8">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O8">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P8">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q8">
-        <v>341.9617705126109</v>
+        <v>408.6733722416016</v>
       </c>
       <c r="R8">
-        <v>3077.655934613498</v>
+        <v>3678.060350174414</v>
       </c>
       <c r="S8">
-        <v>0.09984295657719523</v>
+        <v>0.1054684889858136</v>
       </c>
       <c r="T8">
-        <v>0.09984295657719523</v>
+        <v>0.1054684889858136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>43.476679</v>
       </c>
       <c r="I9">
-        <v>0.1426994904503839</v>
+        <v>0.1433496734549659</v>
       </c>
       <c r="J9">
-        <v>0.1426994904503839</v>
+        <v>0.1433496734549659</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>23.334077</v>
       </c>
       <c r="O9">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P9">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q9">
         <v>112.7209083878092</v>
@@ -1004,10 +1004,10 @@
         <v>1014.488175490283</v>
       </c>
       <c r="S9">
-        <v>0.03291124836742825</v>
+        <v>0.02909047834352725</v>
       </c>
       <c r="T9">
-        <v>0.03291124836742825</v>
+        <v>0.02909047834352724</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>43.476679</v>
       </c>
       <c r="I10">
-        <v>0.1426994904503839</v>
+        <v>0.1433496734549659</v>
       </c>
       <c r="J10">
-        <v>0.1426994904503839</v>
+        <v>0.1433496734549659</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.350402666666666</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N10">
-        <v>7.051207999999999</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O10">
-        <v>0.06969391042933215</v>
+        <v>0.0613235169202299</v>
       </c>
       <c r="P10">
-        <v>0.06969391042933216</v>
+        <v>0.06132351692022989</v>
       </c>
       <c r="Q10">
-        <v>34.06256741980355</v>
+        <v>34.06256741980356</v>
       </c>
       <c r="R10">
-        <v>306.5631067782319</v>
+        <v>306.5631067782321</v>
       </c>
       <c r="S10">
-        <v>0.009945285505760394</v>
+        <v>0.00879070612562503</v>
       </c>
       <c r="T10">
-        <v>0.009945285505760395</v>
+        <v>0.008790706125625028</v>
       </c>
     </row>
   </sheetData>
